--- a/Parts List.xlsx
+++ b/Parts List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericmiddelhove/Development/rc-car/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA751D8-FB5D-D74E-9CDE-576590F4AED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB234F6-3CF6-6A48-B589-B6E12EBC4139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17800" yWindow="10840" windowWidth="28040" windowHeight="17240" xr2:uid="{5FC71DC2-8A43-D349-AF5C-EBEA4452D137}"/>
+    <workbookView xWindow="13620" yWindow="6900" windowWidth="28040" windowHeight="17240" xr2:uid="{5FC71DC2-8A43-D349-AF5C-EBEA4452D137}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>RC-CAR PART LIST</t>
   </si>
@@ -57,13 +57,57 @@
   </si>
   <si>
     <t>Arduino Computing Unit</t>
+  </si>
+  <si>
+    <t>MPU - 6050</t>
+  </si>
+  <si>
+    <t>Gyrosocope &amp; Accelerometer</t>
+  </si>
+  <si>
+    <t>USB - A</t>
+  </si>
+  <si>
+    <t>Interface to Image Processing Unit</t>
+  </si>
+  <si>
+    <t>Voltage regulator 6V, &gt;1A</t>
+  </si>
+  <si>
+    <r>
+      <t>L7806CV STM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Spannungsregler</t>
+    </r>
+  </si>
+  <si>
+    <t>9V Block Batterie</t>
+  </si>
+  <si>
+    <t>Power Supply Steering Servo</t>
+  </si>
+  <si>
+    <t>100Ω Resistor</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>220Ω Resistor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,6 +122,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,15 +191,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -464,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E534F61C-49C5-CA4B-95B3-D058B29CB647}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,38 +533,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Parts List.xlsx
+++ b/Parts List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericmiddelhove/Development/rc-car/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB234F6-3CF6-6A48-B589-B6E12EBC4139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58031E93-1BEC-334B-AE41-AA731F69B933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13620" yWindow="6900" windowWidth="28040" windowHeight="17240" xr2:uid="{5FC71DC2-8A43-D349-AF5C-EBEA4452D137}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Parts List.xlsx
+++ b/Parts List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericmiddelhove/Development/rc-car/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58031E93-1BEC-334B-AE41-AA731F69B933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F300F8B1-DAF8-084D-8D25-474CB82088BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13620" yWindow="6900" windowWidth="28040" windowHeight="17240" xr2:uid="{5FC71DC2-8A43-D349-AF5C-EBEA4452D137}"/>
   </bookViews>
@@ -94,13 +94,13 @@
     <t>Power Supply Steering Servo</t>
   </si>
   <si>
-    <t>100Ω Resistor</t>
-  </si>
-  <si>
     <t>Resistor</t>
   </si>
   <si>
     <t>220Ω Resistor</t>
+  </si>
+  <si>
+    <t>110Ω Resistor</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -616,10 +616,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
